--- a/misc/moving_average.xlsx
+++ b/misc/moving_average.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="330" windowWidth="18075" windowHeight="8220" activeTab="2"/>
+    <workbookView xWindow="720" yWindow="330" windowWidth="18075" windowHeight="8220"/>
   </bookViews>
   <sheets>
-    <sheet name="データ" sheetId="1" r:id="rId1"/>
-    <sheet name="グラフ" sheetId="2" r:id="rId2"/>
-    <sheet name="注釈" sheetId="4" r:id="rId3"/>
+    <sheet name="元データ" sheetId="5" r:id="rId1"/>
+    <sheet name="計算データ" sheetId="1" r:id="rId2"/>
+    <sheet name="グラフ" sheetId="2" r:id="rId3"/>
+    <sheet name="注釈" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Value</t>
     <phoneticPr fontId="1"/>
@@ -143,7 +144,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>データ!$G$1</c:f>
+              <c:f>計算データ!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -157,7 +158,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>データ!$G$2:$G$520</c:f>
+              <c:f>計算データ!$G$2:$G$520</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="519"/>
@@ -1551,7 +1552,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>データ!$H$1</c:f>
+              <c:f>計算データ!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1565,7 +1566,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>データ!$H$2:$H$520</c:f>
+              <c:f>計算データ!$H$2:$H$520</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="519"/>
@@ -2959,7 +2960,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>データ!$I$1</c:f>
+              <c:f>計算データ!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2973,7 +2974,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>データ!$I$2:$I$520</c:f>
+              <c:f>計算データ!$I$2:$I$520</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="519"/>
@@ -4367,7 +4368,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>データ!$J$1</c:f>
+              <c:f>計算データ!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4381,7 +4382,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>データ!$J$2:$J$520</c:f>
+              <c:f>計算データ!$J$2:$J$520</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="519"/>
@@ -5780,11 +5781,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="166365056"/>
-        <c:axId val="166366592"/>
+        <c:axId val="167580672"/>
+        <c:axId val="149898368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="166365056"/>
+        <c:axId val="167580672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5803,7 +5804,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166366592"/>
+        <c:crossAx val="149898368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5811,7 +5812,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="166366592"/>
+        <c:axId val="149898368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5832,7 +5833,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166365056"/>
+        <c:crossAx val="167580672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5889,7 +5890,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>データ!$G$1</c:f>
+              <c:f>計算データ!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5906,7 +5907,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>データ!$G$2:$G$520</c:f>
+              <c:f>計算データ!$G$2:$G$520</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="519"/>
@@ -7300,7 +7301,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>データ!$H$1</c:f>
+              <c:f>計算データ!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7321,7 +7322,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>データ!$H$2:$H$520</c:f>
+              <c:f>計算データ!$H$2:$H$520</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="519"/>
@@ -8715,7 +8716,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>データ!$I$1</c:f>
+              <c:f>計算データ!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8737,7 +8738,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>データ!$I$2:$I$520</c:f>
+              <c:f>計算データ!$I$2:$I$520</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="519"/>
@@ -10131,7 +10132,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>データ!$J$1</c:f>
+              <c:f>計算データ!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10153,7 +10154,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>データ!$J$2:$J$520</c:f>
+              <c:f>計算データ!$J$2:$J$520</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="519"/>
@@ -11552,11 +11553,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="168021376"/>
-        <c:axId val="168024320"/>
+        <c:axId val="167583232"/>
+        <c:axId val="149901248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="168021376"/>
+        <c:axId val="167583232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11575,7 +11576,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168024320"/>
+        <c:crossAx val="149901248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11583,7 +11584,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="168024320"/>
+        <c:axId val="149901248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11604,7 +11605,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168021376"/>
+        <c:crossAx val="167583232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12515,6 +12516,2621 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A520"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>31.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>31.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>40.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>40.9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>41.8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>42.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>41.8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>41.7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>41.6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>41.6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>41.6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>44.7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>46.1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>46.7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>47.1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>47.1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>47.2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>47.1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>48.8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>49.4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>49.6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>49.6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>49.6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>49.6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>49.6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>49.9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>49.1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>48.6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>48.3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>48.1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A103">
+        <v>47.9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A104">
+        <v>47.9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A105">
+        <v>47.9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A106">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A107">
+        <v>46.7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A108">
+        <v>45.8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A109">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A110">
+        <v>45.2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A111">
+        <v>45.2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A112">
+        <v>45.2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A113">
+        <v>45.3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A114">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A115">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A116">
+        <v>59.7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A117">
+        <v>64.8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A118">
+        <v>68.3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A119">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A120">
+        <v>72.099999999999994</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A121">
+        <v>80.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A122">
+        <v>80.599999999999994</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A123">
+        <v>88.8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A124">
+        <v>88.8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A125">
+        <v>91.8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A126">
+        <v>95.4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A127">
+        <v>96.1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A128">
+        <v>95.7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A129">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A130">
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A131">
+        <v>93.4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A132">
+        <v>92.3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A133">
+        <v>91.4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A134">
+        <v>90.9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A135">
+        <v>90.7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A136">
+        <v>90.4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A137">
+        <v>90.3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A138">
+        <v>95.4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A139">
+        <v>96.6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A140">
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A141">
+        <v>101.4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A142">
+        <v>103.4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A143">
+        <v>104.6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A144">
+        <v>104.7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A145">
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A146">
+        <v>104.3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A147">
+        <v>104.1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A148">
+        <v>103.9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A149">
+        <v>103.8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A150">
+        <v>104.4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A151">
+        <v>104.9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A152">
+        <v>105.3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A153">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A154">
+        <v>112.7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A155">
+        <v>113.4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A156">
+        <v>113.2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A157">
+        <v>112.7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A158">
+        <v>111.5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A159">
+        <v>108.5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A160">
+        <v>106.1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A161">
+        <v>102.8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A162">
+        <v>101.8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A163">
+        <v>101.1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A164">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A165">
+        <v>99.4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A166">
+        <v>99.3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A167">
+        <v>99.2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A168">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A169">
+        <v>94.6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A170">
+        <v>93.1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A171">
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A172">
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A173">
+        <v>94.3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A174">
+        <v>94.1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A175">
+        <v>93.7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A176">
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A177">
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A178">
+        <v>96.3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A179">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A180">
+        <v>94.8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A181">
+        <v>91.7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A182">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A183">
+        <v>88.3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A184">
+        <v>87.9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A185">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A186">
+        <v>87.4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A187">
+        <v>87.4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A188">
+        <v>87.3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A189">
+        <v>87.1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A190">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A191">
+        <v>86.6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A192">
+        <v>84.1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A193">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A194">
+        <v>81.5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A195">
+        <v>81.3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A196">
+        <v>80.599999999999994</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A197">
+        <v>78.900000000000006</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A198">
+        <v>77.2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A199">
+        <v>75.7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A200">
+        <v>74.2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A201">
+        <v>72.2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A202">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A203">
+        <v>64.8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A204">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A205">
+        <v>54.2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A206">
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A207">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A208">
+        <v>54.5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A209">
+        <v>55.6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A210">
+        <v>55.7</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A211">
+        <v>55.6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A212">
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A213">
+        <v>55.4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A214">
+        <v>55.3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A215">
+        <v>54.9</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A216">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A217">
+        <v>52.2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A218">
+        <v>50.8</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A219">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A220">
+        <v>48.7</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A221">
+        <v>48.2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A222">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A223">
+        <v>47.8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A224">
+        <v>47.8</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A225">
+        <v>47.9</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A226">
+        <v>47.8</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A227">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A228">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A229">
+        <v>44.3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A230">
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A231">
+        <v>44.8</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A232">
+        <v>44.9</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A233">
+        <v>45.6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A234">
+        <v>45.7</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A235">
+        <v>46.2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A236">
+        <v>47.3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A237">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A238">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A239">
+        <v>48.8</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A240">
+        <v>50.6</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A241">
+        <v>51.5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A242">
+        <v>51.2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A243">
+        <v>52.3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A244">
+        <v>53.3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A245">
+        <v>53.6</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A246">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A247">
+        <v>53.6</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A248">
+        <v>53.6</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A249">
+        <v>53.8</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A250">
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A251">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A252">
+        <v>75.8</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A253">
+        <v>75.900000000000006</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A254">
+        <v>73.2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A255">
+        <v>70.099999999999994</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A256">
+        <v>66.8</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A257">
+        <v>64.2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A258">
+        <v>63.9</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A259">
+        <v>63.6</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A260">
+        <v>63.5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A261">
+        <v>63.4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A262">
+        <v>63.4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A263">
+        <v>63.5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A264">
+        <v>64.5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A265">
+        <v>64.8</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A266">
+        <v>64.7</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A267">
+        <v>63.3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A268">
+        <v>62.9</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A269">
+        <v>62.3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A270">
+        <v>62.1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A271">
+        <v>62.1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A272">
+        <v>62.1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A273">
+        <v>62.1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A274">
+        <v>62.7</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A275">
+        <v>63.4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A276">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A277">
+        <v>64.3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A278">
+        <v>64.5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A279">
+        <v>64.400000000000006</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A280">
+        <v>64.3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A281">
+        <v>64.099999999999994</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A282">
+        <v>63.9</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A283">
+        <v>63.8</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A284">
+        <v>63.7</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A285">
+        <v>63.5</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A286">
+        <v>63.2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A287">
+        <v>62.9</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A288">
+        <v>62.2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A289">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A290">
+        <v>61.9</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A291">
+        <v>61.7</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A292">
+        <v>61.6</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A293">
+        <v>61.4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A294">
+        <v>61.3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A295">
+        <v>61.3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A296">
+        <v>61.2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A297">
+        <v>61.2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A298">
+        <v>61.1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A299">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A300">
+        <v>60.6</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A301">
+        <v>59.8</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A302">
+        <v>59.7</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A303">
+        <v>59.3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A304">
+        <v>59.1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A305">
+        <v>58.9</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A306">
+        <v>58.7</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A307">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A308">
+        <v>58.4</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A309">
+        <v>58.3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A310">
+        <v>58.2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A311">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A312">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A313">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A314">
+        <v>57.4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A315">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A316">
+        <v>58.4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A317">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A318">
+        <v>60.6</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A319">
+        <v>60.8</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A320">
+        <v>60.9</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A321">
+        <v>60.8</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A322">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A323">
+        <v>61.1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A324">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A325">
+        <v>64.400000000000006</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A326">
+        <v>64.599999999999994</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A327">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A328">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A329">
+        <v>65.8</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A330">
+        <v>65.7</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A331">
+        <v>65.400000000000006</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A332">
+        <v>65.3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A333">
+        <v>65.2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A334">
+        <v>65.099999999999994</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A335">
+        <v>64.400000000000006</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A336">
+        <v>63.4</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A337">
+        <v>62.7</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A338">
+        <v>62.2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A339">
+        <v>61.7</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A340">
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A341">
+        <v>59.8</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A342">
+        <v>59.6</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A343">
+        <v>59.4</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A344">
+        <v>59.4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A345">
+        <v>59.3</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A346">
+        <v>59.3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A347">
+        <v>58.1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A348">
+        <v>56.9</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A349">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A350">
+        <v>55.3</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A351">
+        <v>55.1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A352">
+        <v>54.7</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A353">
+        <v>54.5</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A354">
+        <v>54.6</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A355">
+        <v>54.8</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A356">
+        <v>54.9</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A357">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A358">
+        <v>55.7</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A359">
+        <v>56.2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A360">
+        <v>57.1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A361">
+        <v>57.9</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A362">
+        <v>58.1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A363">
+        <v>57.9</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A364">
+        <v>58.3</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A365">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A366">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A367">
+        <v>59.2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A368">
+        <v>59.2</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A369">
+        <v>59.3</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A370">
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A371">
+        <v>61.2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A372">
+        <v>63.3</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A373">
+        <v>64.3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A374">
+        <v>64.5</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A375">
+        <v>64.3</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A376">
+        <v>64.3</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A377">
+        <v>64.2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A378">
+        <v>64.099999999999994</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A379">
+        <v>64.099999999999994</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A380">
+        <v>63.9</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A381">
+        <v>63.9</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A382">
+        <v>63.7</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A383">
+        <v>63.7</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A384">
+        <v>62.8</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A385">
+        <v>61.1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A386">
+        <v>60.3</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A387">
+        <v>59.6</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A388">
+        <v>59.3</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A389">
+        <v>59.2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A390">
+        <v>59.4</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A391">
+        <v>59.6</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A392">
+        <v>59.7</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A393">
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A394">
+        <v>59.4</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A395">
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A396">
+        <v>60.1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A397">
+        <v>60.6</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A398">
+        <v>61.6</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A399">
+        <v>62.1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A400">
+        <v>62.9</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A401">
+        <v>63.6</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A402">
+        <v>63.6</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A403">
+        <v>63.3</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A404">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A405">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A406">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A407">
+        <v>62.6</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A408">
+        <v>62.3</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A409">
+        <v>61.8</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A410">
+        <v>61.4</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A411">
+        <v>61.2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A412">
+        <v>61.2</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A413">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A414">
+        <v>61.6</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A415">
+        <v>63.3</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A416">
+        <v>63.7</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A417">
+        <v>63.9</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A418">
+        <v>67.7</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A419">
+        <v>69.099999999999994</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A420">
+        <v>72.2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A421">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A422">
+        <v>72.2</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A423">
+        <v>72.2</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A424">
+        <v>72.3</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A425">
+        <v>77.900000000000006</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A426">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A427">
+        <v>78.900000000000006</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A428">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A429">
+        <v>82.2</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A430">
+        <v>84.8</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A431">
+        <v>86.8</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A432">
+        <v>88.1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A433">
+        <v>88.6</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A434">
+        <v>94.9</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A435">
+        <v>99.4</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A436">
+        <v>98.6</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A437">
+        <v>97.9</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A438">
+        <v>100.1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A439">
+        <v>100.4</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A440">
+        <v>100.4</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A441">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A442">
+        <v>104.4</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A443">
+        <v>102.6</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A444">
+        <v>99.3</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A445">
+        <v>98.2</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A446">
+        <v>97.8</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A447">
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A448">
+        <v>93.7</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A449">
+        <v>94.2</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A450">
+        <v>98.1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A451">
+        <v>99.2</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A452">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A453">
+        <v>102.3</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A454">
+        <v>102.2</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A455">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A456">
+        <v>111.1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A457">
+        <v>121.8</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A458">
+        <v>122.1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A459">
+        <v>120.9</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A460">
+        <v>121.1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A461">
+        <v>121.1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A462">
+        <v>125.1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A463">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A464">
+        <v>153.5</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A465">
+        <v>158.30000000000001</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A466">
+        <v>153.5</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A467">
+        <v>142.69999999999999</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A468">
+        <v>117.8</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A469">
+        <v>99.1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A470">
+        <v>89.3</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A471">
+        <v>88.9</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A472">
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A473">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A474">
+        <v>82.8</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A475">
+        <v>83.6</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A476">
+        <v>86.9</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A477">
+        <v>87.3</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A478">
+        <v>89.3</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A479">
+        <v>89.8</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A480">
+        <v>89.6</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A481">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A482">
+        <v>92.1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A483">
+        <v>96.3</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A484">
+        <v>95.9</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A485">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A486">
+        <v>104.2</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A487">
+        <v>103.7</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A488">
+        <v>102.6</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A489">
+        <v>102.2</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A490">
+        <v>100.9</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A491">
+        <v>100.6</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A492">
+        <v>100.6</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A493">
+        <v>102.9</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A494">
+        <v>109.2</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A495">
+        <v>113.2</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A496">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A497">
+        <v>123.6</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A498">
+        <v>125.2</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A499">
+        <v>123.3</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A500">
+        <v>121.8</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A501">
+        <v>121.7</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A502">
+        <v>118.4</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A503">
+        <v>114.6</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A504">
+        <v>114.3</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A505">
+        <v>116.4</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A506">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A507">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A508">
+        <v>126.3</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A509">
+        <v>128.4</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A510">
+        <v>126.3</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A511">
+        <v>119.7</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A512">
+        <v>116.4</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A513">
+        <v>116.6</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A514">
+        <v>120.1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A515">
+        <v>120.1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A516">
+        <v>118.2</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A517">
+        <v>120.9</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A518">
+        <v>125.8</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A519">
+        <v>132.9</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A520">
+        <v>131.80000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J520"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28034,7 +30650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -28050,11 +30666,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
